--- a/examples/france_without_paris.xlsx
+++ b/examples/france_without_paris.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>network</t>
   </si>
@@ -31,7 +31,7 @@
     <t>infrastructure</t>
   </si>
   <si>
-    <t>ipam</t>
+    <t>ipam.xlsx</t>
   </si>
   <si>
     <t>192.168.2.0/24</t>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>office wireless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net a network </t>
   </si>
 </sst>
 </file>
@@ -57,7 +54,7 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="238"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -429,19 +426,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="13.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="12.75"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="13.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:3">
+    <row customFormat="1" r="1" s="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -463,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -474,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -483,11 +480,6 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/examples/france_without_paris.xlsx
+++ b/examples/france_without_paris.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="5960" yWindow="2640" windowWidth="15940" windowHeight="5320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>network</t>
   </si>
@@ -23,6 +28,21 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>172.16.20.0/30</t>
+  </si>
+  <si>
+    <t>vpn links to paris</t>
+  </si>
+  <si>
+    <t>infoblox</t>
+  </si>
+  <si>
+    <t>192.168.0.0/23</t>
+  </si>
+  <si>
+    <t>core</t>
   </si>
   <si>
     <t>192.168.1.0/24</t>
@@ -49,29 +69,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,17 +123,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -421,24 +464,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="13.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="12.6640625"/>
+    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,11 +518,39 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/examples/france_without_paris.xlsx
+++ b/examples/france_without_paris.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="2640" windowWidth="15940" windowHeight="5320"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+  <si>
+    <t># subnet</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
   <si>
     <t>source</t>
@@ -33,7 +28,7 @@
     <t>172.16.20.0/30</t>
   </si>
   <si>
-    <t>vpn links to paris</t>
+    <t>France - vpn links to paris</t>
   </si>
   <si>
     <t>infoblox</t>
@@ -42,73 +37,77 @@
     <t>192.168.0.0/23</t>
   </si>
   <si>
-    <t>core</t>
+    <t>France core net</t>
   </si>
   <si>
     <t>192.168.1.0/24</t>
   </si>
   <si>
-    <t>infrastructure</t>
+    <t>France infrastructure</t>
   </si>
   <si>
     <t>ipam.xlsx</t>
   </si>
   <si>
+    <t>Overlap with net 192.168.0.0/23 from examples/france_without_paris.xlsx:A3</t>
+  </si>
+  <si>
     <t>192.168.2.0/24</t>
   </si>
   <si>
-    <t>end users</t>
+    <t>France - end users</t>
   </si>
   <si>
     <t>10.0.0.0/16</t>
   </si>
   <si>
-    <t>office wireless</t>
+    <t>France - office wireless</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="11"/>
       <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,22 +123,21 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -464,20 +462,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5" style="2" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="13.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="22"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="8.83203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="64.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row customFormat="1" r="1" s="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,14 +524,16 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -535,22 +541,17 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/examples/france_without_paris.xlsx
+++ b/examples/france_without_paris.xlsx
@@ -40,7 +40,7 @@
     <t>France core net</t>
   </si>
   <si>
-    <t>192.168.1.0/24</t>
+    <t># Overlap:192.168.1.0/24</t>
   </si>
   <si>
     <t>France infrastructure</t>
@@ -470,13 +470,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="13.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="22"/>
+    <col bestFit="1" customWidth="1" max="2" min="1" style="2" width="22"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="8.83203125"/>
     <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="64.6640625"/>
   </cols>

--- a/examples/france_without_paris.xlsx
+++ b/examples/france_without_paris.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t># subnet</t>
   </si>
@@ -28,7 +28,7 @@
     <t>172.16.20.0/30</t>
   </si>
   <si>
-    <t>France - vpn links to paris</t>
+    <t>vpn links Paris to France</t>
   </si>
   <si>
     <t>infoblox</t>
@@ -37,19 +37,16 @@
     <t>192.168.0.0/23</t>
   </si>
   <si>
-    <t>France core net</t>
-  </si>
-  <si>
-    <t># Overlap:192.168.1.0/24</t>
-  </si>
-  <si>
-    <t>France infrastructure</t>
+    <t>France - core net</t>
+  </si>
+  <si>
+    <t>192.168.1.0/24</t>
+  </si>
+  <si>
+    <t>France - infrastructure</t>
   </si>
   <si>
     <t>ipam.xlsx</t>
-  </si>
-  <si>
-    <t>Overlap with net 192.168.0.0/23 from examples/france_without_paris.xlsx:A3</t>
   </si>
   <si>
     <t>192.168.2.0/24</t>
@@ -470,7 +467,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -523,16 +520,14 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4" t="s"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -540,10 +535,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
